--- a/data_year/zb/就业人员和工资/按登记注册类型分城镇单位就业人员平均工资.xlsx
+++ b/data_year/zb/就业人员和工资/按登记注册类型分城镇单位就业人员平均工资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,779 +488,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9888</v>
+        <v>25253</v>
       </c>
       <c r="C2" t="n">
-        <v>9441</v>
+        <v>38359</v>
       </c>
       <c r="D2" t="n">
-        <v>9333</v>
+        <v>36539</v>
       </c>
       <c r="E2" t="n">
-        <v>6241</v>
+        <v>24010</v>
       </c>
       <c r="F2" t="n">
-        <v>15692</v>
+        <v>41739</v>
       </c>
       <c r="G2" t="n">
-        <v>9750</v>
+        <v>32799</v>
       </c>
       <c r="H2" t="n">
-        <v>12210</v>
+        <v>31983</v>
       </c>
       <c r="I2" t="n">
-        <v>10608</v>
+        <v>33939</v>
       </c>
       <c r="J2" t="n">
-        <v>7479</v>
+        <v>30271</v>
       </c>
       <c r="K2" t="n">
-        <v>11105</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11888</v>
+        <v>29961</v>
       </c>
       <c r="C3" t="n">
-        <v>11045</v>
+        <v>43483</v>
       </c>
       <c r="D3" t="n">
-        <v>10834</v>
+        <v>41799</v>
       </c>
       <c r="E3" t="n">
-        <v>6851</v>
+        <v>28791</v>
       </c>
       <c r="F3" t="n">
-        <v>17553</v>
+        <v>48869</v>
       </c>
       <c r="G3" t="n">
-        <v>11024</v>
+        <v>37611</v>
       </c>
       <c r="H3" t="n">
-        <v>12959</v>
+        <v>38341</v>
       </c>
       <c r="I3" t="n">
-        <v>11882</v>
+        <v>36142</v>
       </c>
       <c r="J3" t="n">
-        <v>8446</v>
+        <v>36740</v>
       </c>
       <c r="K3" t="n">
-        <v>12333</v>
+        <v>49978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10444</v>
+        <v>34694</v>
       </c>
       <c r="C4" t="n">
-        <v>12701</v>
+        <v>48357</v>
       </c>
       <c r="D4" t="n">
-        <v>12373</v>
+        <v>46769</v>
       </c>
       <c r="E4" t="n">
-        <v>7636</v>
+        <v>33784</v>
       </c>
       <c r="F4" t="n">
-        <v>19409</v>
+        <v>55888</v>
       </c>
       <c r="G4" t="n">
-        <v>11994</v>
+        <v>41860</v>
       </c>
       <c r="H4" t="n">
-        <v>14197</v>
+        <v>44103</v>
       </c>
       <c r="I4" t="n">
-        <v>12438</v>
+        <v>42083</v>
       </c>
       <c r="J4" t="n">
-        <v>9498</v>
+        <v>43433</v>
       </c>
       <c r="K4" t="n">
-        <v>13815</v>
+        <v>56254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10670</v>
+        <v>38306</v>
       </c>
       <c r="C5" t="n">
-        <v>14358</v>
+        <v>52657</v>
       </c>
       <c r="D5" t="n">
-        <v>13969</v>
+        <v>51483</v>
       </c>
       <c r="E5" t="n">
-        <v>8627</v>
+        <v>38905</v>
       </c>
       <c r="F5" t="n">
-        <v>21016</v>
+        <v>63171</v>
       </c>
       <c r="G5" t="n">
-        <v>13358</v>
+        <v>46718</v>
       </c>
       <c r="H5" t="n">
-        <v>15155</v>
+        <v>49961</v>
       </c>
       <c r="I5" t="n">
-        <v>13556</v>
+        <v>43973</v>
       </c>
       <c r="J5" t="n">
-        <v>10558</v>
+        <v>48657</v>
       </c>
       <c r="K5" t="n">
-        <v>15738</v>
+        <v>61145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10211</v>
+        <v>42224</v>
       </c>
       <c r="C6" t="n">
-        <v>16445</v>
+        <v>57296</v>
       </c>
       <c r="D6" t="n">
-        <v>15920</v>
+        <v>56360</v>
       </c>
       <c r="E6" t="n">
-        <v>9723</v>
+        <v>42742</v>
       </c>
       <c r="F6" t="n">
-        <v>22250</v>
+        <v>69826</v>
       </c>
       <c r="G6" t="n">
-        <v>15103</v>
+        <v>50942</v>
       </c>
       <c r="H6" t="n">
-        <v>16237</v>
+        <v>55935</v>
       </c>
       <c r="I6" t="n">
-        <v>15218</v>
+        <v>49078</v>
       </c>
       <c r="J6" t="n">
-        <v>11710</v>
+        <v>54806</v>
       </c>
       <c r="K6" t="n">
-        <v>18136</v>
+        <v>67421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11230</v>
+        <v>46945</v>
       </c>
       <c r="C7" t="n">
-        <v>18978</v>
+        <v>65296</v>
       </c>
       <c r="D7" t="n">
-        <v>18200</v>
+        <v>62029</v>
       </c>
       <c r="E7" t="n">
-        <v>11176</v>
+        <v>46607</v>
       </c>
       <c r="F7" t="n">
-        <v>23625</v>
+        <v>76302</v>
       </c>
       <c r="G7" t="n">
-        <v>17010</v>
+        <v>54481</v>
       </c>
       <c r="H7" t="n">
-        <v>17833</v>
+        <v>62017</v>
       </c>
       <c r="I7" t="n">
-        <v>17476</v>
+        <v>50733</v>
       </c>
       <c r="J7" t="n">
-        <v>13808</v>
+        <v>60369</v>
       </c>
       <c r="K7" t="n">
-        <v>20272</v>
+        <v>72644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13262</v>
+        <v>49759</v>
       </c>
       <c r="C8" t="n">
-        <v>21706</v>
+        <v>72538</v>
       </c>
       <c r="D8" t="n">
-        <v>20856</v>
+        <v>67569</v>
       </c>
       <c r="E8" t="n">
-        <v>12866</v>
+        <v>50527</v>
       </c>
       <c r="F8" t="n">
-        <v>26552</v>
+        <v>82902</v>
       </c>
       <c r="G8" t="n">
-        <v>19366</v>
+        <v>58490</v>
       </c>
       <c r="H8" t="n">
-        <v>19678</v>
+        <v>67506</v>
       </c>
       <c r="I8" t="n">
-        <v>19883</v>
+        <v>53455</v>
       </c>
       <c r="J8" t="n">
-        <v>15190</v>
+        <v>65962</v>
       </c>
       <c r="K8" t="n">
-        <v>24383</v>
+        <v>78285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16280</v>
+        <v>54417</v>
       </c>
       <c r="C9" t="n">
-        <v>26100</v>
+        <v>81114</v>
       </c>
       <c r="D9" t="n">
-        <v>24721</v>
+        <v>74318</v>
       </c>
       <c r="E9" t="n">
-        <v>15444</v>
+        <v>55243</v>
       </c>
       <c r="F9" t="n">
-        <v>29594</v>
+        <v>90064</v>
       </c>
       <c r="G9" t="n">
-        <v>22343</v>
+        <v>63895</v>
       </c>
       <c r="H9" t="n">
-        <v>22593</v>
+        <v>73016</v>
       </c>
       <c r="I9" t="n">
-        <v>23746</v>
+        <v>61467</v>
       </c>
       <c r="J9" t="n">
-        <v>17613</v>
+        <v>71871</v>
       </c>
       <c r="K9" t="n">
-        <v>28587</v>
+        <v>85028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19591</v>
+        <v>61666</v>
       </c>
       <c r="C10" t="n">
-        <v>30287</v>
+        <v>89474</v>
       </c>
       <c r="D10" t="n">
-        <v>28898</v>
+        <v>82413</v>
       </c>
       <c r="E10" t="n">
-        <v>18103</v>
+        <v>60664</v>
       </c>
       <c r="F10" t="n">
-        <v>34250</v>
+        <v>99367</v>
       </c>
       <c r="G10" t="n">
-        <v>26198</v>
+        <v>72114</v>
       </c>
       <c r="H10" t="n">
-        <v>26083</v>
+        <v>82027</v>
       </c>
       <c r="I10" t="n">
-        <v>27576</v>
+        <v>72107</v>
       </c>
       <c r="J10" t="n">
-        <v>21497</v>
+        <v>77751</v>
       </c>
       <c r="K10" t="n">
-        <v>34026</v>
+        <v>93316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21633</v>
+        <v>71329</v>
       </c>
       <c r="C11" t="n">
-        <v>34130</v>
+        <v>98899</v>
       </c>
       <c r="D11" t="n">
-        <v>32244</v>
+        <v>90501</v>
       </c>
       <c r="E11" t="n">
-        <v>20607</v>
+        <v>62612</v>
       </c>
       <c r="F11" t="n">
-        <v>37101</v>
+        <v>106604</v>
       </c>
       <c r="G11" t="n">
-        <v>28692</v>
+        <v>79515</v>
       </c>
       <c r="H11" t="n">
-        <v>28090</v>
+        <v>91304</v>
       </c>
       <c r="I11" t="n">
-        <v>29474</v>
+        <v>75220</v>
       </c>
       <c r="J11" t="n">
-        <v>25020</v>
+        <v>81058</v>
       </c>
       <c r="K11" t="n">
-        <v>38417</v>
+        <v>103087</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25253</v>
+        <v>71772</v>
       </c>
       <c r="C12" t="n">
-        <v>38359</v>
+        <v>108132</v>
       </c>
       <c r="D12" t="n">
-        <v>36539</v>
+        <v>97379</v>
       </c>
       <c r="E12" t="n">
-        <v>24010</v>
+        <v>68590</v>
       </c>
       <c r="F12" t="n">
-        <v>41739</v>
+        <v>112089</v>
       </c>
       <c r="G12" t="n">
-        <v>32799</v>
+        <v>84439</v>
       </c>
       <c r="H12" t="n">
-        <v>31983</v>
+        <v>100155</v>
       </c>
       <c r="I12" t="n">
-        <v>33939</v>
+        <v>88584</v>
       </c>
       <c r="J12" t="n">
-        <v>30271</v>
+        <v>83655</v>
       </c>
       <c r="K12" t="n">
-        <v>44118</v>
+        <v>108583</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29961</v>
+        <v>76342</v>
       </c>
       <c r="C13" t="n">
-        <v>43483</v>
+        <v>115583</v>
       </c>
       <c r="D13" t="n">
-        <v>41799</v>
+        <v>106837</v>
       </c>
       <c r="E13" t="n">
-        <v>28791</v>
+        <v>74491</v>
       </c>
       <c r="F13" t="n">
-        <v>48869</v>
+        <v>126019</v>
       </c>
       <c r="G13" t="n">
-        <v>37611</v>
+        <v>93209</v>
       </c>
       <c r="H13" t="n">
-        <v>38341</v>
+        <v>114034</v>
       </c>
       <c r="I13" t="n">
-        <v>36142</v>
+        <v>92825</v>
       </c>
       <c r="J13" t="n">
-        <v>36740</v>
+        <v>90241</v>
       </c>
       <c r="K13" t="n">
-        <v>49978</v>
+        <v>121594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>34694</v>
-      </c>
-      <c r="C14" t="n">
-        <v>48357</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>46769</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33784</v>
-      </c>
-      <c r="F14" t="n">
-        <v>55888</v>
-      </c>
-      <c r="G14" t="n">
-        <v>41860</v>
-      </c>
-      <c r="H14" t="n">
-        <v>44103</v>
-      </c>
-      <c r="I14" t="n">
-        <v>42083</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43433</v>
-      </c>
-      <c r="K14" t="n">
-        <v>56254</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>38306</v>
-      </c>
-      <c r="C15" t="n">
-        <v>52657</v>
-      </c>
-      <c r="D15" t="n">
-        <v>51483</v>
-      </c>
-      <c r="E15" t="n">
-        <v>38905</v>
-      </c>
-      <c r="F15" t="n">
-        <v>63171</v>
-      </c>
-      <c r="G15" t="n">
-        <v>46718</v>
-      </c>
-      <c r="H15" t="n">
-        <v>49961</v>
-      </c>
-      <c r="I15" t="n">
-        <v>43973</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48657</v>
-      </c>
-      <c r="K15" t="n">
-        <v>61145</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>42224</v>
-      </c>
-      <c r="C16" t="n">
-        <v>57296</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56360</v>
-      </c>
-      <c r="E16" t="n">
-        <v>42742</v>
-      </c>
-      <c r="F16" t="n">
-        <v>69826</v>
-      </c>
-      <c r="G16" t="n">
-        <v>50942</v>
-      </c>
-      <c r="H16" t="n">
-        <v>55935</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49078</v>
-      </c>
-      <c r="J16" t="n">
-        <v>54806</v>
-      </c>
-      <c r="K16" t="n">
-        <v>67421</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>46945</v>
-      </c>
-      <c r="C17" t="n">
-        <v>65296</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62029</v>
-      </c>
-      <c r="E17" t="n">
-        <v>46607</v>
-      </c>
-      <c r="F17" t="n">
-        <v>76302</v>
-      </c>
-      <c r="G17" t="n">
-        <v>54481</v>
-      </c>
-      <c r="H17" t="n">
-        <v>62017</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50733</v>
-      </c>
-      <c r="J17" t="n">
-        <v>60369</v>
-      </c>
-      <c r="K17" t="n">
-        <v>72644</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>49759</v>
-      </c>
-      <c r="C18" t="n">
-        <v>72538</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67569</v>
-      </c>
-      <c r="E18" t="n">
-        <v>50527</v>
-      </c>
-      <c r="F18" t="n">
-        <v>82902</v>
-      </c>
-      <c r="G18" t="n">
-        <v>58490</v>
-      </c>
-      <c r="H18" t="n">
-        <v>67506</v>
-      </c>
-      <c r="I18" t="n">
-        <v>53455</v>
-      </c>
-      <c r="J18" t="n">
-        <v>65962</v>
-      </c>
-      <c r="K18" t="n">
-        <v>78285</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>54417</v>
-      </c>
-      <c r="C19" t="n">
-        <v>81114</v>
-      </c>
-      <c r="D19" t="n">
-        <v>74318</v>
-      </c>
-      <c r="E19" t="n">
-        <v>55243</v>
-      </c>
-      <c r="F19" t="n">
-        <v>90064</v>
-      </c>
-      <c r="G19" t="n">
-        <v>63895</v>
-      </c>
-      <c r="H19" t="n">
-        <v>73016</v>
-      </c>
-      <c r="I19" t="n">
-        <v>61467</v>
-      </c>
-      <c r="J19" t="n">
-        <v>71871</v>
-      </c>
-      <c r="K19" t="n">
-        <v>85028</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>61666</v>
-      </c>
-      <c r="C20" t="n">
-        <v>89474</v>
-      </c>
-      <c r="D20" t="n">
-        <v>82413</v>
-      </c>
-      <c r="E20" t="n">
-        <v>60664</v>
-      </c>
-      <c r="F20" t="n">
-        <v>99367</v>
-      </c>
-      <c r="G20" t="n">
-        <v>72114</v>
-      </c>
-      <c r="H20" t="n">
-        <v>82027</v>
-      </c>
-      <c r="I20" t="n">
-        <v>72107</v>
-      </c>
-      <c r="J20" t="n">
-        <v>77751</v>
-      </c>
-      <c r="K20" t="n">
-        <v>93316</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>71329</v>
-      </c>
-      <c r="C21" t="n">
-        <v>98899</v>
-      </c>
-      <c r="D21" t="n">
-        <v>90501</v>
-      </c>
-      <c r="E21" t="n">
-        <v>62612</v>
-      </c>
-      <c r="F21" t="n">
-        <v>106604</v>
-      </c>
-      <c r="G21" t="n">
-        <v>79515</v>
-      </c>
-      <c r="H21" t="n">
-        <v>91304</v>
-      </c>
-      <c r="I21" t="n">
-        <v>75220</v>
-      </c>
-      <c r="J21" t="n">
-        <v>81058</v>
-      </c>
-      <c r="K21" t="n">
-        <v>103087</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>71772</v>
-      </c>
-      <c r="C22" t="n">
-        <v>108132</v>
-      </c>
-      <c r="D22" t="n">
-        <v>97379</v>
-      </c>
-      <c r="E22" t="n">
-        <v>68590</v>
-      </c>
-      <c r="F22" t="n">
-        <v>112089</v>
-      </c>
-      <c r="G22" t="n">
-        <v>84439</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100155</v>
-      </c>
-      <c r="I22" t="n">
-        <v>88584</v>
-      </c>
-      <c r="J22" t="n">
-        <v>83655</v>
-      </c>
-      <c r="K22" t="n">
-        <v>108583</v>
-      </c>
+        <v>114029</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
